--- a/excel/final.xlsx
+++ b/excel/final.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,25 +426,103 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>503.2770894569925</v>
+        <v>500.3967451671421</v>
       </c>
       <c r="C2">
-        <v>502</v>
+        <v>486.0573380359111</v>
       </c>
       <c r="D2">
-        <v>0.7171698524762143</v>
+        <v>0.7130653618631776</v>
       </c>
       <c r="E2">
-        <v>0.71535</v>
+        <v>0.6926317067011734</v>
       </c>
       <c r="F2">
-        <v>1.506</v>
+        <v>1.458172014107733</v>
       </c>
       <c r="G2">
-        <v>-4215.609309468756</v>
+        <v>-17203.27621390313</v>
       </c>
       <c r="H2">
-        <v>-4215.609309468756</v>
+        <v>-17203.27621390313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>504.2717186279297</v>
+      </c>
+      <c r="C3">
+        <v>541.072601374769</v>
+      </c>
+      <c r="D3">
+        <v>0.7185871990447998</v>
+      </c>
+      <c r="E3">
+        <v>0.7710284569590458</v>
+      </c>
+      <c r="F3">
+        <v>1.623217804124307</v>
+      </c>
+      <c r="G3">
+        <v>33688.04928671115</v>
+      </c>
+      <c r="H3">
+        <v>16484.77307280803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>541.0726419151376</v>
+      </c>
+      <c r="C4">
+        <v>511.2340392476124</v>
+      </c>
+      <c r="D4">
+        <v>0.7710285147290712</v>
+      </c>
+      <c r="E4">
+        <v>0.7285085059278477</v>
+      </c>
+      <c r="F4">
+        <v>1.533702117742837</v>
+      </c>
+      <c r="G4">
+        <v>-32871.84180592503</v>
+      </c>
+      <c r="H4">
+        <v>-16387.068733117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>536</v>
+      </c>
+      <c r="C5">
+        <v>535</v>
+      </c>
+      <c r="D5">
+        <v>0.7638</v>
+      </c>
+      <c r="E5">
+        <v>0.762375</v>
+      </c>
+      <c r="F5">
+        <v>1.605</v>
+      </c>
+      <c r="G5">
+        <v>-4131.175000000001</v>
+      </c>
+      <c r="H5">
+        <v>-20518.243733117</v>
       </c>
     </row>
   </sheetData>

--- a/excel/final.xlsx
+++ b/excel/final.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>500.3967451671421</v>
+        <v>504.2717186279297</v>
       </c>
       <c r="C2">
-        <v>486.0573380359111</v>
+        <v>541.072601374769</v>
       </c>
       <c r="D2">
-        <v>0.7130653618631776</v>
+        <v>0.7185871990447998</v>
       </c>
       <c r="E2">
-        <v>0.6926317067011734</v>
+        <v>0.7710284569590458</v>
       </c>
       <c r="F2">
-        <v>1.458172014107733</v>
+        <v>1.623217804124307</v>
       </c>
       <c r="G2">
-        <v>-17203.27621390313</v>
+        <v>33688.04928671115</v>
       </c>
       <c r="H2">
-        <v>-17203.27621390313</v>
+        <v>33688.04928671115</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>504.2717186279297</v>
+        <v>541.0726419151376</v>
       </c>
       <c r="C3">
-        <v>541.072601374769</v>
+        <v>511.2340392476124</v>
       </c>
       <c r="D3">
-        <v>0.7185871990447998</v>
+        <v>0.7710285147290712</v>
       </c>
       <c r="E3">
-        <v>0.7710284569590458</v>
+        <v>0.7285085059278477</v>
       </c>
       <c r="F3">
-        <v>1.623217804124307</v>
+        <v>1.533702117742837</v>
       </c>
       <c r="G3">
-        <v>33688.04928671115</v>
+        <v>-32871.84180592503</v>
       </c>
       <c r="H3">
-        <v>16484.77307280803</v>
+        <v>816.2074807861281</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,51 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>541.0726419151376</v>
+        <v>536</v>
       </c>
       <c r="C4">
-        <v>511.2340392476124</v>
+        <v>535</v>
       </c>
       <c r="D4">
-        <v>0.7710285147290712</v>
+        <v>0.7638</v>
       </c>
       <c r="E4">
-        <v>0.7285085059278477</v>
+        <v>0.762375</v>
       </c>
       <c r="F4">
-        <v>1.533702117742837</v>
+        <v>1.605</v>
       </c>
       <c r="G4">
-        <v>-32871.84180592503</v>
+        <v>-4131.175000000001</v>
       </c>
       <c r="H4">
-        <v>-16387.068733117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>536</v>
-      </c>
-      <c r="C5">
-        <v>535</v>
-      </c>
-      <c r="D5">
-        <v>0.7638</v>
-      </c>
-      <c r="E5">
-        <v>0.762375</v>
-      </c>
-      <c r="F5">
-        <v>1.605</v>
-      </c>
-      <c r="G5">
-        <v>-4131.175000000001</v>
-      </c>
-      <c r="H5">
-        <v>-20518.243733117</v>
+        <v>-3314.967519213873</v>
       </c>
     </row>
   </sheetData>
